--- a/On ETFs/individual results.xlsx
+++ b/On ETFs/individual results.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4298090712539083</v>
+        <v>-0.04755386812845992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8793384043557326</v>
+        <v>-0.06413302417494464</v>
       </c>
       <c r="E2" t="n">
-        <v>5.228480059333352</v>
+        <v>7.457682340064895</v>
       </c>
       <c r="F2" t="n">
-        <v>14.64286499023292</v>
+        <v>-1.314027099609666</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1749029984161815</v>
+        <v>0.1229339897445214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2456676831522379</v>
+        <v>0.1613594973784875</v>
       </c>
       <c r="E3" t="n">
-        <v>4.977483799955444</v>
+        <v>5.934768921289421</v>
       </c>
       <c r="F3" t="n">
-        <v>4.583865234378027</v>
+        <v>3.60400170898356</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4072179128170215</v>
+        <v>-0.5500854851611587</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4970799021080676</v>
+        <v>-0.5773774920532264</v>
       </c>
       <c r="E4" t="n">
-        <v>9.927863638595575</v>
+        <v>10.41979638272463</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.263927490235074</v>
+        <v>-10.22400097656209</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3045651063421783</v>
+        <v>-0.1696893426796797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.420007859451238</v>
+        <v>-0.2106744292928747</v>
       </c>
       <c r="E5" t="n">
-        <v>7.176106108528908</v>
+        <v>9.177025650397205</v>
       </c>
       <c r="F5" t="n">
-        <v>11.52754345703579</v>
+        <v>-5.932007080079347</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7769954564445334</v>
+        <v>-0.04549257198313735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9001089998921548</v>
+        <v>-0.06206115543688791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3076536921347572</v>
+        <v>0.6999631387151589</v>
       </c>
       <c r="F6" t="n">
-        <v>2.265271423337981</v>
+        <v>-0.1759982299787226</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3633526984564858</v>
+        <v>-0.6764078225837872</v>
       </c>
       <c r="D7" t="n">
-        <v>1.408196974063848</v>
+        <v>-0.9058363234720953</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6079455287897444</v>
+        <v>2.821994936315583</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9751205444321386</v>
+        <v>-2.798002136229479</v>
       </c>
     </row>
   </sheetData>
